--- a/acuerdos proveedores/Lista de Proveedores N.xlsx
+++ b/acuerdos proveedores/Lista de Proveedores N.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7680"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="20115" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t xml:space="preserve">Comercializadora de Valor Agregado S. A. de C. V. </t>
   </si>
@@ -120,15 +120,6 @@
     <t>PROVEEDOR</t>
   </si>
   <si>
-    <t>Se elige a este proveedor para la compra de hardware ya que su catalogo de productos es muy amplio.</t>
-  </si>
-  <si>
-    <t>Se elige este proveedor para la compra de hardware ya que sus precios son accesibles.</t>
-  </si>
-  <si>
-    <t>Es nuestro principal proveedor de software.</t>
-  </si>
-  <si>
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
@@ -138,49 +129,111 @@
     <t>#</t>
   </si>
   <si>
-    <t>Se elige CTO como primera opción para la compra de hardware ya que para la  entrega a domicilio no demora y no piden costos mínimos, y sus precios son más bajos.</t>
-  </si>
-  <si>
     <t>Se elige a este proveedor en la compra de hardware ya que su catalogo de productos es amplio, sus costos bajos pero se deja en segundo plano ya que para la entrega de domicilio piden cantidad mínima.</t>
   </si>
   <si>
-    <t>Se elige este proveedor ya que nos dan 15 días para el pago de las compras y para comprar rollos térmicos y todo lo relacionado con papelería.</t>
-  </si>
-  <si>
-    <t>Se elige a este proveedor para la compra de hardware por la entrega a domicilio exprés y el amplio catalogo de proveedores que maneja.</t>
-  </si>
-  <si>
-    <t>Este proveedor de software se elige de acuerdo a la necesidad del cliente .</t>
-  </si>
-  <si>
-    <t>Se elige a este proveedor para ofrecer sistemas CRM, que cuenta con herramientas para tener una mejor organización en las empresas.</t>
-  </si>
-  <si>
-    <t>Se elige a este proveedor para la compra de timbres de nuestro sistema Easy Retail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se elige a este proveedor para adquirir hardware como impresoras, lectores etc. </t>
-  </si>
-  <si>
-    <t>Se elige a este proveedor para adquirir tarjetas RAM y cargadores para computadoras.</t>
-  </si>
-  <si>
-    <t>Se elige a este proveedor ya que ofrece el servicio de pago con tarjeta de crédito para nuestras paginas web.</t>
-  </si>
-  <si>
-    <t>Se elige a este proveedor ya que cuenta con sistemas conexión remotas a precios accesibles.</t>
-  </si>
-  <si>
-    <t>Se elige este proveedor ya que nos ofrece reloj checador para la venta a nuestros clientes a costos accesibles y completos.</t>
-  </si>
-  <si>
     <t>Easy Retail</t>
   </si>
   <si>
-    <t>Desarrolladores</t>
-  </si>
-  <si>
     <t>Pr- ESR</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>HARDWARE computadoras cargadores orejeras mouse</t>
+  </si>
+  <si>
+    <t>HARDWARE computadoras cargadores orejeras mouse impresoras</t>
+  </si>
+  <si>
+    <t>Se elige a este proveedor para la compra de hardware ya que su catalogo de productos es muy amplio, la entrega es a domicilioy con un costo minimo de entrega a domicilio.</t>
+  </si>
+  <si>
+    <t>Se elige CTO como primera opción para la compra de hardware ya que para la  entrega a domicilio no demora y no piden costos mínimos, y sus precios son más bajos , dan mas garantia que los demas proveedores.</t>
+  </si>
+  <si>
+    <t>Se elige este proveedor para la compra de hardware si tenemos una compra o cotizacion urgente ellos son los mas eficaces, rapidos en cualquier duda o compra que surga de nuesta parte.</t>
+  </si>
+  <si>
+    <t>HARDWARE  computadoras cargadores orejeras mouse impresoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO LO RELACIONADO CON PAPELERIAcartuchos hojas plumas </t>
+  </si>
+  <si>
+    <t>Se elige este proveedor ya que nos dan 15 días para el pago de las compras aveces mucho mas tiempo si algo no lo tienen lo consiguen o nos contactan con alguien mas. Es nuestro unico proveedor de papeleria.</t>
+  </si>
+  <si>
+    <t>HARDWARE proyectores laser e impresoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se elige a este proveedor por su giro en compra-venta pues ellos consiguen lo qu necesitemos por mas caracteristicas especificas que tengas las cosas ellos lo encuentran.necesita algo con caracteristicas muy especificas ellos lo consiguen. Tiene cargo de envio. el pago con ellos es inmediato. </t>
+  </si>
+  <si>
+    <t>Distribuidior Master de CONTPAQi venta de convertidores  de CONTPAQi contabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es nuestra unica opcion por que sabes que sus precios son justos y su servicio muy bueno. El pago con ellos es en el momento de la compra.</t>
+  </si>
+  <si>
+    <t>Por ser un proveedor master obtienen excelentes descuentos que nos benefician a nosotros como sus clientes pues bajan ellos los precios, son comprensibles en el tema del pago, siempre nos dan la oportunidad de pagar despues de 8 dias y son eficaces en  envio de facturas y certicados de las compras.</t>
+  </si>
+  <si>
+    <t>Proveedor de software Administrativos</t>
+  </si>
+  <si>
+    <t>Este proveedor de software se elige de acuerdo a la necesidad del cliente . Se les paga al momento de la compra, se va hasta sus instalaciones por el producto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se elige a este proveedor para ofrecer sistemas CRM, que cuenta con herramientas para tener una mejor organización en las empresas. Aplicación para rte ner el control de clientes y programas que facilita la organización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herramienta de  trabajo colaborativo y comunicación virtual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se elige a este proveedor para la compra de timbres de nuestro sistema Easy Retail. Con ellos el timbre es mas barato por que lo compramos por paquetes y si no vendimos todos los tiembres en el año no es dinero perdido por que nos reactivan los timbres para el siguiente año. </t>
+  </si>
+  <si>
+    <t>Proveedor de timbres fiscales</t>
+  </si>
+  <si>
+    <t>Se elige a este proveedor para adquirir hardware como impresoras, lectores etc.  Fue el primer proveedor contactado al inicio de la empresa seguimos cotizando antes de comprar con ellos en especial cuando tienen promociones. Seles paga en el momento de la compra. evian el producto pero con cargo adicional alto.</t>
+  </si>
+  <si>
+    <t>HARDWARE   tarjetas RAM y cargadores para computadoras, monitores, impresoras</t>
+  </si>
+  <si>
+    <t>La compra con ellos es al instante, las cotizaciones siempre las envian en menos de 3 horas y siempre tienen lo que buscamos, son nuestros mejores proveedores en memorias RAM, por los precios accesibles, se les paga al momento de la compra, se va a las instalaciones por el producto.</t>
+  </si>
+  <si>
+    <t>Reloj de checador</t>
+  </si>
+  <si>
+    <t>Se elige este proveedor ya que nos ofrece reloj checador para la venta a nuestros clientes a costos accesibles y completos. Es muy facil de usar y entender. Se paga al momento y el envio se paga a un costo normal. Time work es mas bataros que otras opciones. Hace intefaz con nomina y auda a los descuentos por faltao o retardos por ejemplo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se elige a este proveedor ya que ofrece el servicio de pago con tarjeta de crédito para nuestras paginas web. La comision que se paga es mas baja que otros provedores y su factura siempre llega a tiempo. </t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Servicio de pago con tarjeta</t>
+  </si>
+  <si>
+    <t>Sistema de conexión remotas</t>
+  </si>
+  <si>
+    <t>Se elige a este proveedor ya que cuenta con sistemas conexión remotas a precios accesibles. VPN  que ayuda a conectar empresas en cualquier lado del mundo, es  la opcion mas barata y cuenta con las caracteristicas basicas requeridas por nuestros clientes. Nos envian el numero de licencia en el momento del pago.</t>
+  </si>
+  <si>
+    <t>un sistema creado por SOS software, que esta personalizado dependiendo a la necesidad del cliente, que ayuda a la organización de la empresa Gran capacidad de almacenamiento un alto rendimiento.
+Excelente desempeño en la generación de reportes de inventarios, productos, cobranza,
+cuentas por pagar, entre otros.</t>
+  </si>
+  <si>
+    <t>sistema personalizado para la organización de las empresas</t>
   </si>
 </sst>
 </file>
@@ -242,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -300,11 +359,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,14 +407,44 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,29 +747,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
@@ -678,10 +779,13 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -692,10 +796,14 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -706,10 +814,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -720,10 +832,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -734,10 +850,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -748,10 +868,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -762,10 +885,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -775,23 +901,31 @@
       <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -802,10 +936,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="108" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -816,10 +953,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -830,10 +970,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -844,10 +987,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -858,10 +1004,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -872,12 +1021,15 @@
         <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>22</v>
@@ -886,10 +1038,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -900,26 +1055,33 @@
         <v>31</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="204" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
